--- a/biology/Botanique/Elymus_spicatus/Elymus_spicatus.xlsx
+++ b/biology/Botanique/Elymus_spicatus/Elymus_spicatus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Elymus spicatus est une espèce de plantes monocotylédones de la famille des Poaceae, sous-famille des Pooideae, originaire d'Amérique du Nord .
 Ce sont des plantes herbacées vivaces, cespiteuses, aux tiges (chaumes) dressées pouvant atteindre 100 cm de haut et aux inflorescences en épis d'épillets.
@@ -512,10 +524,12 @@
           <t>Distribution et habitat</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'aire de répartition d'Elymus spicatus comprend tout l'ouest de l'Amérique du Nord (États-Unis et Canada), à l'est des chaînes côtières, depuis l'Alaska jusqu'à la Californie et le Nouveau-Mexique vers le Sud, et jusqu'au Saskatchewan, au Michigan et au Texas vers l'Est[2].
-Cette espèce se rencontre dans des habitats très divers, en plaine et sur les pentes des montagnes, dans les canyons, les bois ouverts et sur les rives des cours d'eau. Elle tolère les sols humides mais est plus abondante sur sols secs[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'aire de répartition d'Elymus spicatus comprend tout l'ouest de l'Amérique du Nord (États-Unis et Canada), à l'est des chaînes côtières, depuis l'Alaska jusqu'à la Californie et le Nouveau-Mexique vers le Sud, et jusqu'au Saskatchewan, au Michigan et au Texas vers l'Est.
+Cette espèce se rencontre dans des habitats très divers, en plaine et sur les pentes des montagnes, dans les canyons, les bois ouverts et sur les rives des cours d'eau. Elle tolère les sols humides mais est plus abondante sur sols secs.
 </t>
         </is>
       </c>
@@ -544,9 +558,11 @@
           <t>Synonymes</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon Catalogue of Life                                   (21 novembre 2017)[4] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon Catalogue of Life                                   (21 novembre 2017) :
 Agropyron divergens (Steud.) P.Candargy
 Agropyron divergens var. inerme Scribn. &amp; J.G.Sm.
 Agropyron divergens var. tenue Vasey, nom. nud.
